--- a/SourceDataTables/FigS2c.xlsx
+++ b/SourceDataTables/FigS2c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +90,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2c.xlsx
+++ b/SourceDataTables/FigS2c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +75,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +94,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS2c.xlsx
+++ b/SourceDataTables/FigS2c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,34 +49,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,10 +74,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -106,7 +86,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.51923397831767149</v>
+        <v>-0.51741215225134107</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +94,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.4343927382983252</v>
+        <v>-0.43322782280930666</v>
       </c>
     </row>
     <row r="4">
@@ -122,7 +102,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.33749799963894583</v>
+        <v>-0.33482232322569</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +110,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.19053470672776054</v>
+        <v>-0.1870873045452561</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +118,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1567895120761516</v>
+        <v>0.15882961033332618</v>
       </c>
     </row>
     <row r="7">
@@ -146,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.32807634282217829</v>
+        <v>-0.32727687992811583</v>
       </c>
     </row>
     <row r="8">
@@ -154,7 +134,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.33894922467504185</v>
+        <v>-0.33758682996514761</v>
       </c>
     </row>
     <row r="9">
@@ -162,7 +142,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.21335079971042539</v>
+        <v>-0.21090556932020757</v>
       </c>
     </row>
     <row r="10">
@@ -170,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.52395566536571658</v>
+        <v>-0.52160632694213127</v>
       </c>
     </row>
     <row r="11">
@@ -178,7 +158,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.183159097670367</v>
+        <v>-0.18013639242029381</v>
       </c>
     </row>
     <row r="12">
@@ -186,7 +166,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.76125886159148481</v>
+        <v>0.76229434638050242</v>
       </c>
     </row>
     <row r="13">
@@ -194,7 +174,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.16967692605152079</v>
+        <v>-0.16689622181500718</v>
       </c>
     </row>
     <row r="14">
@@ -202,7 +182,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.354021116542106</v>
+        <v>-0.35299128667788221</v>
       </c>
     </row>
     <row r="15">
@@ -210,7 +190,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.30068323003147396</v>
+        <v>-0.29981974706597053</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +198,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.33216843740717394</v>
+        <v>-0.3306938350861191</v>
       </c>
     </row>
     <row r="17">
@@ -226,7 +206,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.24383001132898535</v>
+        <v>-0.24084990143829615</v>
       </c>
     </row>
     <row r="18">
@@ -234,7 +214,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.23504181186094275</v>
+        <v>-0.23308613138519099</v>
       </c>
     </row>
     <row r="19">
@@ -242,7 +222,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.23801055420677616</v>
+        <v>-0.23608312966398404</v>
       </c>
     </row>
     <row r="20">
@@ -250,7 +230,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.16558543550441265</v>
+        <v>-0.16249650258377471</v>
       </c>
     </row>
     <row r="21">
@@ -258,7 +238,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.2172787663543352</v>
+        <v>1.2171074646687696</v>
       </c>
     </row>
     <row r="22">
@@ -266,7 +246,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.16429981441423175</v>
+        <v>-0.16190729293774436</v>
       </c>
     </row>
     <row r="23">
@@ -274,7 +254,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.31171116179169295</v>
+        <v>-0.31056054524820842</v>
       </c>
     </row>
     <row r="24">
@@ -282,7 +262,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.26059005855310491</v>
+        <v>-0.25923676543895369</v>
       </c>
     </row>
     <row r="25">
@@ -290,7 +270,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.44039663286719394</v>
+        <v>-0.43908910275958107</v>
       </c>
     </row>
     <row r="26">
@@ -298,7 +278,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.19408643653896349</v>
+        <v>-0.19198766364500292</v>
       </c>
     </row>
     <row r="27">
@@ -306,7 +286,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.26029676983960276</v>
+        <v>-0.25847950684279769</v>
       </c>
     </row>
     <row r="28">
@@ -314,7 +294,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.24540788374019029</v>
+        <v>-0.24305440746518511</v>
       </c>
     </row>
     <row r="29">
@@ -322,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.081009105853826285</v>
+        <v>-0.077683538183065962</v>
       </c>
     </row>
     <row r="30">
@@ -330,7 +310,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.12831943311958055</v>
+        <v>-0.12635493342959309</v>
       </c>
     </row>
     <row r="31">
@@ -338,7 +318,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.11751375432131889</v>
+        <v>-0.11455622950157932</v>
       </c>
     </row>
     <row r="32">
@@ -346,7 +326,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.17116185106602458</v>
+        <v>-0.16928467962775326</v>
       </c>
     </row>
     <row r="33">
@@ -354,7 +334,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.13369606003994461</v>
+        <v>-0.13130543793416352</v>
       </c>
     </row>
     <row r="34">
@@ -362,7 +342,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.10815171050738581</v>
+        <v>-0.10607487186267012</v>
       </c>
     </row>
     <row r="35">
@@ -370,7 +350,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.18931451765445834</v>
+        <v>-0.18636723085806881</v>
       </c>
     </row>
     <row r="36">
@@ -378,7 +358,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.25435620205346671</v>
+        <v>-0.25290121514955699</v>
       </c>
     </row>
     <row r="37">
@@ -386,7 +366,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.13390505772661254</v>
+        <v>-0.13188311397078506</v>
       </c>
     </row>
     <row r="38">
@@ -394,7 +374,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.021829354362239144</v>
+        <v>0.025003730244721564</v>
       </c>
     </row>
     <row r="39">
@@ -402,7 +382,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-1.3336420145928334</v>
+        <v>-1.3344273689280062</v>
       </c>
     </row>
     <row r="40">
@@ -410,7 +390,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.17039000456928263</v>
+        <v>-0.16819333137618508</v>
       </c>
     </row>
     <row r="41">
@@ -418,7 +398,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.92047668985662967</v>
+        <v>-0.92112372179757307</v>
       </c>
     </row>
     <row r="42">
@@ -426,7 +406,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.072950100269774512</v>
+        <v>-0.070735862149093762</v>
       </c>
     </row>
     <row r="43">
@@ -434,7 +414,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.18193777289619517</v>
+        <v>-0.17922909338735865</v>
       </c>
     </row>
     <row r="44">
@@ -442,7 +422,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.22928778954963275</v>
+        <v>-0.22651293970307795</v>
       </c>
     </row>
     <row r="45">
@@ -450,7 +430,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.14253103610841339</v>
+        <v>-0.14035894632122387</v>
       </c>
     </row>
     <row r="46">
@@ -458,7 +438,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.21296293632015983</v>
+        <v>-0.21116447577890443</v>
       </c>
     </row>
     <row r="47">
@@ -466,7 +446,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.48208671863726621</v>
+        <v>-0.48087157485372767</v>
       </c>
     </row>
     <row r="48">
@@ -474,7 +454,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.14048258771791725</v>
+        <v>-0.13788831764242279</v>
       </c>
     </row>
     <row r="49">
@@ -482,7 +462,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.1350135369107495</v>
+        <v>-1.1349829493129846</v>
       </c>
     </row>
     <row r="50">
@@ -490,7 +470,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.10983794458123421</v>
+        <v>-0.10751350811167573</v>
       </c>
     </row>
     <row r="51">
@@ -498,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.28704229507592194</v>
+        <v>-0.283615584752963</v>
       </c>
     </row>
     <row r="52">
@@ -506,7 +486,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.0722820240265547</v>
+        <v>-1.0727498821954213</v>
       </c>
     </row>
     <row r="53">
@@ -514,7 +494,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.023235394431385285</v>
+        <v>-0.020615923774629459</v>
       </c>
     </row>
     <row r="54">
@@ -522,7 +502,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.10260539938796694</v>
+        <v>-0.10034914694229125</v>
       </c>
     </row>
     <row r="55">
@@ -530,7 +510,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.028092442161238212</v>
+        <v>0.030857968171496355</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.1224666880738213</v>
+        <v>-0.12004292200787357</v>
       </c>
     </row>
     <row r="57">
@@ -546,7 +526,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-1.1231023486803566</v>
+        <v>-1.1250029718868322</v>
       </c>
     </row>
     <row r="58">
@@ -554,7 +534,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.075959342603457228</v>
+        <v>-0.073324218230583146</v>
       </c>
     </row>
     <row r="59">
@@ -562,7 +542,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.12921840094318868</v>
+        <v>-0.12677606212907444</v>
       </c>
     </row>
     <row r="60">
@@ -570,7 +550,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.036953105682575024</v>
+        <v>-0.034190402016625772</v>
       </c>
     </row>
     <row r="61">
@@ -578,7 +558,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.28112433360256289</v>
+        <v>-0.27775207059267454</v>
       </c>
     </row>
     <row r="62">
@@ -586,7 +566,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.052022801287366471</v>
+        <v>-0.049657692883645334</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +574,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1.1240710848968585</v>
+        <v>-1.1267517502243438</v>
       </c>
     </row>
     <row r="64">
@@ -602,7 +582,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1.2669518244572542</v>
+        <v>-1.2694091889971686</v>
       </c>
     </row>
     <row r="65">
@@ -610,7 +590,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.079683446383656112</v>
+        <v>-0.077742437074960771</v>
       </c>
     </row>
     <row r="66">
@@ -618,7 +598,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-0.16019349828731438</v>
+        <v>-0.15722536186683772</v>
       </c>
     </row>
     <row r="67">
@@ -626,7 +606,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.4840823973621347</v>
+        <v>-1.4877723600118387</v>
       </c>
     </row>
     <row r="68">
@@ -634,7 +614,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-0.034398632575519075</v>
+        <v>-0.031951947961680084</v>
       </c>
     </row>
     <row r="69">
@@ -642,7 +622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-0.81805448700293248</v>
+        <v>-0.81895278183095821</v>
       </c>
     </row>
     <row r="70">
@@ -650,7 +630,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-0.10347556393971723</v>
+        <v>-0.10064409417665617</v>
       </c>
     </row>
     <row r="71">
@@ -658,7 +638,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.049631732547361113</v>
+        <v>-0.046845550198794668</v>
       </c>
     </row>
     <row r="72">
@@ -666,7 +646,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1.1374353524956289</v>
+        <v>-1.1389139132450716</v>
       </c>
     </row>
     <row r="73">
@@ -674,7 +654,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.10734154456748755</v>
+        <v>-0.10508825809946459</v>
       </c>
     </row>
     <row r="74">
@@ -682,7 +662,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1.2826893173400664</v>
+        <v>-1.2853484020193364</v>
       </c>
     </row>
     <row r="75">
@@ -690,7 +670,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.0036201129288240684</v>
+        <v>0.0067758672868201662</v>
       </c>
     </row>
     <row r="76">
@@ -698,7 +678,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.099227208488157012</v>
+        <v>-0.096682680498452606</v>
       </c>
     </row>
     <row r="77">
@@ -706,7 +686,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.086392265828673112</v>
+        <v>0.089491730055133292</v>
       </c>
     </row>
     <row r="78">
@@ -714,7 +694,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.3445286535739745</v>
+        <v>-0.34102806498268107</v>
       </c>
     </row>
     <row r="79">
@@ -722,7 +702,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.025621848121826666</v>
+        <v>0.027929627920318469</v>
       </c>
     </row>
     <row r="80">
@@ -730,7 +710,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.29592033649309329</v>
+        <v>-0.2924426061126128</v>
       </c>
     </row>
     <row r="81">
@@ -738,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-0.09024387063244918</v>
+        <v>-0.087693362156446353</v>
       </c>
     </row>
     <row r="82">
@@ -746,7 +726,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.057124169972565475</v>
+        <v>-0.054531164271793629</v>
       </c>
     </row>
     <row r="83">
@@ -754,7 +734,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1.0551323880544918</v>
+        <v>-1.0572935545494766</v>
       </c>
     </row>
     <row r="84">
@@ -762,7 +742,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1.2395399324597816</v>
+        <v>-1.2421304336097485</v>
       </c>
     </row>
     <row r="85">
@@ -770,7 +750,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-1.1150379887237813</v>
+        <v>-1.1177944956694579</v>
       </c>
     </row>
     <row r="86">
@@ -778,7 +758,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.69817106495190795</v>
+        <v>-0.70226280303992183</v>
       </c>
     </row>
     <row r="87">
@@ -786,7 +766,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-1.2155832093430785</v>
+        <v>-1.2180576061574591</v>
       </c>
     </row>
     <row r="88">
@@ -794,7 +774,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.10228642690146061</v>
+        <v>-0.099595336574267487</v>
       </c>
     </row>
     <row r="89">
@@ -802,7 +782,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.006411219768962269</v>
+        <v>0.0096334721533035458</v>
       </c>
     </row>
     <row r="90">
@@ -810,7 +790,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-0.062074522127544871</v>
+        <v>-0.0592891626014991</v>
       </c>
     </row>
     <row r="91">
@@ -818,7 +798,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-1.2870577680448068</v>
+        <v>-1.2902209303377026</v>
       </c>
     </row>
     <row r="92">
@@ -826,7 +806,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.014270859377560646</v>
+        <v>-0.011866271632146409</v>
       </c>
     </row>
     <row r="93">
@@ -834,7 +814,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.072929977646178076</v>
+        <v>-0.070234598614533392</v>
       </c>
     </row>
     <row r="94">
@@ -842,7 +822,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.34722481837412433</v>
+        <v>-0.34390722097123422</v>
       </c>
     </row>
     <row r="95">
@@ -850,7 +830,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.29419019010076258</v>
+        <v>0.29708964382305159</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +838,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.22110481709655302</v>
+        <v>-0.21780422191624077</v>
       </c>
     </row>
     <row r="97">
@@ -866,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.4040125231326415</v>
+        <v>1.4035935534931283</v>
       </c>
     </row>
     <row r="98">
@@ -874,7 +854,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-1.0679190439169457</v>
+        <v>-1.0703472992482137</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +862,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.16105848913445717</v>
+        <v>-0.15752850279152195</v>
       </c>
     </row>
     <row r="100">
@@ -890,7 +870,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.10275501077601783</v>
+        <v>-0.099921717660621814</v>
       </c>
     </row>
     <row r="101">
@@ -898,7 +878,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-1.3196427522312355</v>
+        <v>-1.3222952241588624</v>
       </c>
     </row>
     <row r="102">
@@ -906,7 +886,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-1.2631174508022467</v>
+        <v>-1.2658536248048193</v>
       </c>
     </row>
     <row r="103">
@@ -914,7 +894,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.12469888013362455</v>
+        <v>0.12771023626773453</v>
       </c>
     </row>
     <row r="104">
@@ -922,7 +902,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.1136112360413384</v>
+        <v>1.1135555515864213</v>
       </c>
     </row>
     <row r="105">
@@ -930,7 +910,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-1.3951488321516583</v>
+        <v>-1.3979020924533019</v>
       </c>
     </row>
     <row r="106">
@@ -938,7 +918,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-1.2981529999530665</v>
+        <v>-1.3007061967488063</v>
       </c>
     </row>
     <row r="107">
@@ -946,7 +926,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.1313941084714261</v>
+        <v>1.1316757873703998</v>
       </c>
     </row>
     <row r="108">
@@ -954,7 +934,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-0.028610828424334465</v>
+        <v>-0.025351646350162394</v>
       </c>
     </row>
     <row r="109">
@@ -962,7 +942,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.12656337301087048</v>
+        <v>-0.12355027443129554</v>
       </c>
     </row>
     <row r="110">
@@ -970,7 +950,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.12287586485637289</v>
+        <v>-0.12013274302227846</v>
       </c>
     </row>
     <row r="111">
@@ -978,7 +958,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.34084580454993396</v>
+        <v>-0.33733993910601179</v>
       </c>
     </row>
     <row r="112">
@@ -986,7 +966,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-0.29846732385645797</v>
+        <v>-0.2951636542524298</v>
       </c>
     </row>
     <row r="113">
@@ -994,7 +974,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.88899224460454751</v>
+        <v>-0.89286658198540303</v>
       </c>
     </row>
     <row r="114">
@@ -1002,7 +982,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.060934074001765294</v>
+        <v>-0.057980116248959483</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +990,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.076098838030043844</v>
+        <v>-0.073414495878970976</v>
       </c>
     </row>
     <row r="116">
@@ -1018,7 +998,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-1.5334632143349036</v>
+        <v>-1.5368583479130342</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1006,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-1.3155465415788987</v>
+        <v>-1.3182234591506745</v>
       </c>
     </row>
     <row r="118">
@@ -1034,7 +1014,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.10860879942884055</v>
+        <v>-0.10555789553826482</v>
       </c>
     </row>
     <row r="119">
@@ -1042,7 +1022,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-1.3369034829947468</v>
+        <v>-1.3402903370820185</v>
       </c>
     </row>
     <row r="120">
@@ -1050,7 +1030,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.032530056045582852</v>
+        <v>-0.029744301776612674</v>
       </c>
     </row>
     <row r="121">
@@ -1058,7 +1038,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-1.2193112552244278</v>
+        <v>-1.2219873723791743</v>
       </c>
     </row>
     <row r="122">
@@ -1066,7 +1046,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-1.1588825720968139</v>
+        <v>-1.1627600102249949</v>
       </c>
     </row>
     <row r="123">
@@ -1074,7 +1054,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.42333486007586807</v>
+        <v>0.42554971190492002</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1062,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.13489259616871366</v>
+        <v>-0.13184010416384481</v>
       </c>
     </row>
     <row r="125">
@@ -1090,7 +1070,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.47577903862379789</v>
+        <v>0.47207653618718626</v>
       </c>
     </row>
     <row r="126">
@@ -1098,7 +1078,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-1.423659428029344</v>
+        <v>-1.4264942815859258</v>
       </c>
     </row>
     <row r="127">
@@ -1106,7 +1086,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.30422796533712249</v>
+        <v>-0.30059754867843586</v>
       </c>
     </row>
     <row r="128">
@@ -1114,7 +1094,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.0094146318465998594</v>
+        <v>0.012552496425595146</v>
       </c>
     </row>
     <row r="129">
@@ -1122,7 +1102,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.094719122100510908</v>
+        <v>-0.091285358301567102</v>
       </c>
     </row>
     <row r="130">
@@ -1130,7 +1110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.64423416708191417</v>
+        <v>0.64541945770690146</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1118,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.12540809254628515</v>
+        <v>0.12238394558683709</v>
       </c>
     </row>
     <row r="132">
@@ -1146,7 +1126,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-1.2888784309236114</v>
+        <v>-1.2921268266181158</v>
       </c>
     </row>
     <row r="133">
@@ -1154,7 +1134,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.09215015658421781</v>
+        <v>-0.088923601478386682</v>
       </c>
     </row>
     <row r="134">
@@ -1162,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-1.3576013823199837</v>
+        <v>-1.3606181195739175</v>
       </c>
     </row>
     <row r="135">
@@ -1170,7 +1150,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.43172986816001618</v>
+        <v>-0.4294591149250685</v>
       </c>
     </row>
     <row r="136">
@@ -1178,7 +1158,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.23260633976582801</v>
+        <v>-0.22897567203002783</v>
       </c>
     </row>
     <row r="137">
@@ -1186,7 +1166,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.19632414650049901</v>
+        <v>-0.1950121207735652</v>
       </c>
     </row>
     <row r="138">
@@ -1194,7 +1174,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.71587677911864389</v>
+        <v>0.71601055203695496</v>
       </c>
     </row>
     <row r="139">
@@ -1202,7 +1182,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-0.098532436516295258</v>
+        <v>-0.095290921425103717</v>
       </c>
     </row>
     <row r="140">
@@ -1210,7 +1190,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.2622176233509641</v>
+        <v>-0.25873291726672604</v>
       </c>
     </row>
     <row r="141">
@@ -1218,7 +1198,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.88700945053498281</v>
+        <v>-0.89095890544641043</v>
       </c>
     </row>
     <row r="142">
@@ -1226,7 +1206,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-1.4770616542448247</v>
+        <v>-1.4798633750864618</v>
       </c>
     </row>
     <row r="143">
@@ -1234,7 +1214,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-1.5247979958499078</v>
+        <v>-1.5279276093418201</v>
       </c>
     </row>
     <row r="144">
@@ -1242,7 +1222,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-1.4611960128100627</v>
+        <v>-1.464548864835755</v>
       </c>
     </row>
     <row r="145">
@@ -1250,7 +1230,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-1.4022108924942021</v>
+        <v>-1.4051929016118818</v>
       </c>
     </row>
     <row r="146">
@@ -1258,7 +1238,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-0.16859887936680212</v>
+        <v>-0.16529933447761661</v>
       </c>
     </row>
     <row r="147">
@@ -1266,7 +1246,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-0.0059598300872794356</v>
+        <v>-0.0029943967024094039</v>
       </c>
     </row>
     <row r="148">
@@ -1274,7 +1254,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.10713926328707161</v>
+        <v>-0.10385107475005187</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1262,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.35804301248609333</v>
+        <v>0.36021842369354728</v>
       </c>
     </row>
     <row r="150">
@@ -1290,7 +1270,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.97698970743899005</v>
+        <v>0.97765968507478274</v>
       </c>
     </row>
     <row r="151">
@@ -1298,7 +1278,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.22838800188489883</v>
+        <v>-0.22491605937569883</v>
       </c>
     </row>
     <row r="152">
@@ -1306,7 +1286,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-1.3923918810359941</v>
+        <v>-1.3954490589836546</v>
       </c>
     </row>
     <row r="153">
@@ -1314,7 +1294,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-0.8393457928065432</v>
+        <v>-0.84298783348181472</v>
       </c>
     </row>
     <row r="154">
@@ -1322,7 +1302,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.039907440690332557</v>
+        <v>0.042738034179134091</v>
       </c>
     </row>
     <row r="155">
@@ -1330,7 +1310,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.013196105369549706</v>
+        <v>0.0093451033135245245</v>
       </c>
     </row>
     <row r="156">
@@ -1338,7 +1318,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-1.4016826798649531</v>
+        <v>-1.4052257175224936</v>
       </c>
     </row>
     <row r="157">
@@ -1346,7 +1326,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>-0.20738578196716992</v>
+        <v>-0.20388671417950688</v>
       </c>
     </row>
     <row r="158">
@@ -1354,7 +1334,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.077920586680639503</v>
+        <v>0.080137142210449236</v>
       </c>
     </row>
     <row r="159">
@@ -1362,7 +1342,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-1.568843695082377</v>
+        <v>-1.5722514846133497</v>
       </c>
     </row>
     <row r="160">
@@ -1370,7 +1350,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.072526404256040275</v>
+        <v>-0.069374779511185314</v>
       </c>
     </row>
     <row r="161">
@@ -1378,7 +1358,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>-0.15864683416328862</v>
+        <v>-0.15522835123397699</v>
       </c>
     </row>
     <row r="162">
@@ -1386,7 +1366,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-1.0781899167409603</v>
+        <v>-1.0822641171733571</v>
       </c>
     </row>
     <row r="163">
@@ -1394,7 +1374,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.086243537165724693</v>
+        <v>0.089176235544159543</v>
       </c>
     </row>
     <row r="164">
@@ -1402,7 +1382,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1.4226671108447417</v>
+        <v>1.4198131584759563</v>
       </c>
     </row>
     <row r="165">
@@ -1410,7 +1390,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-1.4120473482520841</v>
+        <v>-1.4154156617809814</v>
       </c>
     </row>
     <row r="166">
@@ -1418,7 +1398,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-1.3338149074048231</v>
+        <v>-1.3374649124886484</v>
       </c>
     </row>
     <row r="167">
@@ -1426,7 +1406,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.34144831233328488</v>
+        <v>0.33964475383671661</v>
       </c>
     </row>
     <row r="168">
@@ -1434,7 +1414,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.13766707512671797</v>
+        <v>0.14050082586527166</v>
       </c>
     </row>
     <row r="169">
@@ -1442,7 +1422,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.28099434250408389</v>
+        <v>0.27722968104775048</v>
       </c>
     </row>
     <row r="170">
@@ -1450,7 +1430,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1.1539183395349741</v>
+        <v>1.1544921703524043</v>
       </c>
     </row>
     <row r="171">
@@ -1458,7 +1438,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-1.492434876075637</v>
+        <v>-1.4958207108346198</v>
       </c>
     </row>
     <row r="172">
@@ -1466,7 +1446,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.22812508358717204</v>
+        <v>0.23059243178168559</v>
       </c>
     </row>
     <row r="173">
@@ -1474,7 +1454,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-0.18690588635056118</v>
+        <v>-0.1835712133278164</v>
       </c>
     </row>
     <row r="174">
@@ -1482,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.12980828053490173</v>
+        <v>-0.12667499837293228</v>
       </c>
     </row>
     <row r="175">
@@ -1490,7 +1470,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-1.4291581692870701</v>
+        <v>-1.4325097770765061</v>
       </c>
     </row>
     <row r="176">
@@ -1498,7 +1478,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.49976663355979362</v>
+        <v>0.50159758298442236</v>
       </c>
     </row>
     <row r="177">
@@ -1506,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-1.3550431980429707</v>
+        <v>-1.3586063408772946</v>
       </c>
     </row>
     <row r="178">
@@ -1514,7 +1494,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>2.5424851576501877</v>
+        <v>2.5397250271058036</v>
       </c>
     </row>
     <row r="179">
@@ -1522,7 +1502,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.32949634728423211</v>
+        <v>-0.33344470827856681</v>
       </c>
     </row>
     <row r="180">
@@ -1530,7 +1510,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.2861277244028782</v>
+        <v>0.28829597877473645</v>
       </c>
     </row>
     <row r="181">
@@ -1538,7 +1518,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.79800656184161256</v>
+        <v>0.79855031159641454</v>
       </c>
     </row>
     <row r="182">
@@ -1546,7 +1526,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>1.7150241471807077</v>
+        <v>1.711118649220237</v>
       </c>
     </row>
     <row r="183">
@@ -1554,7 +1534,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.058748476935580066</v>
+        <v>-0.05563593918300485</v>
       </c>
     </row>
     <row r="184">
@@ -1562,7 +1542,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>0.53318910116241836</v>
+        <v>0.5350194739286277</v>
       </c>
     </row>
     <row r="185">
@@ -1570,7 +1550,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-1.3644731835146722</v>
+        <v>-1.3682579243920179</v>
       </c>
     </row>
     <row r="186">
@@ -1578,7 +1558,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.098536199888119</v>
+        <v>0.10129307598225244</v>
       </c>
     </row>
     <row r="187">
@@ -1586,7 +1566,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.10656631926038604</v>
+        <v>0.1089722964767931</v>
       </c>
     </row>
     <row r="188">
@@ -1594,7 +1574,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>1.0165644994959744</v>
+        <v>1.017183069576971</v>
       </c>
     </row>
     <row r="189">
@@ -1602,7 +1582,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-1.5045589367004908</v>
+        <v>-1.5082982598518717</v>
       </c>
     </row>
     <row r="190">
@@ -1610,7 +1590,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-1.0626774014429026</v>
+        <v>-1.0663992890595024</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1598,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.47021041402544062</v>
+        <v>0.47223339862665376</v>
       </c>
     </row>
     <row r="192">
@@ -1626,7 +1606,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-1.3436126695460586</v>
+        <v>-1.3470574916606728</v>
       </c>
     </row>
     <row r="193">
@@ -1634,7 +1614,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.35369032111863197</v>
+        <v>-0.35700124910834952</v>
       </c>
     </row>
     <row r="194">
@@ -1642,7 +1622,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2.3962434905596472</v>
+        <v>2.3937905687008327</v>
       </c>
     </row>
     <row r="195">
@@ -1650,7 +1630,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>1.2623983169985189</v>
+        <v>1.2585201757902189</v>
       </c>
     </row>
     <row r="196">
@@ -1658,7 +1638,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>1.9091554381457154</v>
+        <v>1.9070465407505961</v>
       </c>
     </row>
     <row r="197">
@@ -1666,7 +1646,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.67074084521475841</v>
+        <v>0.67196368680937635</v>
       </c>
     </row>
     <row r="198">
@@ -1674,7 +1654,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-1.4013468389366899</v>
+        <v>-1.4049185120898813</v>
       </c>
     </row>
     <row r="199">
@@ -1682,7 +1662,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.37203426466766748</v>
+        <v>0.37431208060981735</v>
       </c>
     </row>
     <row r="200">
@@ -1690,7 +1670,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.3141871039141524</v>
+        <v>1.3140109096489436</v>
       </c>
     </row>
     <row r="201">
@@ -1698,7 +1678,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>2.1340057490215973</v>
+        <v>2.130563319837727</v>
       </c>
     </row>
     <row r="202">
@@ -1706,7 +1686,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.4852683568198482</v>
+        <v>0.4873779665646879</v>
       </c>
     </row>
     <row r="203">
@@ -1714,7 +1694,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-1.1175809077322008</v>
+        <v>-1.1212396020971955</v>
       </c>
     </row>
     <row r="204">
@@ -1722,7 +1702,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.47141459777845912</v>
+        <v>0.46776543817477501</v>
       </c>
     </row>
     <row r="205">
@@ -1730,7 +1710,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-1.4754811581494363</v>
+        <v>-1.4792759489525182</v>
       </c>
     </row>
     <row r="206">
@@ -1738,7 +1718,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1.4799808001072965</v>
+        <v>1.4791373062554836</v>
       </c>
     </row>
     <row r="207">
@@ -1746,7 +1726,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.68956918277175894</v>
+        <v>0.69077805098552647</v>
       </c>
     </row>
     <row r="208">
@@ -1754,7 +1734,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.45144303836229593</v>
+        <v>0.45329017382032505</v>
       </c>
     </row>
     <row r="209">
@@ -1762,7 +1742,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1.8902859517806163</v>
+        <v>1.8867430771712634</v>
       </c>
     </row>
     <row r="210">
@@ -1770,7 +1750,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.1578609416047683</v>
+        <v>1.1580724599951209</v>
       </c>
     </row>
     <row r="211">
@@ -1778,7 +1758,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.39082604069244614</v>
+        <v>-0.39470996296489119</v>
       </c>
     </row>
     <row r="212">
@@ -1786,7 +1766,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>2.2219839282070555</v>
+        <v>2.2198298854347573</v>
       </c>
     </row>
     <row r="213">
@@ -1794,7 +1774,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-1.1037163833540191</v>
+        <v>-1.1074243392632184</v>
       </c>
     </row>
     <row r="214">
@@ -1802,7 +1782,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.93305203307412476</v>
+        <v>0.93400301326711588</v>
       </c>
     </row>
     <row r="215">
@@ -1810,7 +1790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.1772736608442766</v>
+        <v>-1.1808615667282576</v>
       </c>
     </row>
     <row r="216">
@@ -1818,7 +1798,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-0.11211492909118846</v>
+        <v>-0.11600865455541519</v>
       </c>
     </row>
     <row r="217">
@@ -1826,7 +1806,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-1.2655922851832062</v>
+        <v>-1.2691436011740371</v>
       </c>
     </row>
     <row r="218">
@@ -1834,7 +1814,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1.8157444082085676</v>
+        <v>1.8143045977089043</v>
       </c>
     </row>
     <row r="219">
@@ -1842,7 +1822,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1.4690193150825612</v>
+        <v>1.4655267980140607</v>
       </c>
     </row>
     <row r="220">
@@ -1850,7 +1830,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2.1689432571215841</v>
+        <v>2.1662242991559881</v>
       </c>
     </row>
     <row r="221">
@@ -1858,7 +1838,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2.3369233105549601</v>
+        <v>2.3336979351774776</v>
       </c>
     </row>
     <row r="222">
@@ -1866,7 +1846,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1.514629865307443</v>
+        <v>1.5137244869452564</v>
       </c>
     </row>
     <row r="223">
@@ -1874,7 +1854,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1.1586844715681894</v>
+        <v>1.158707800449911</v>
       </c>
     </row>
     <row r="224">
@@ -1882,7 +1862,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1.1976714524038079</v>
+        <v>1.197676939527256</v>
       </c>
     </row>
     <row r="225">
@@ -1890,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.93728495517645238</v>
+        <v>-0.94093983632393197</v>
       </c>
     </row>
     <row r="226">
@@ -1898,7 +1878,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1.9219645159650325</v>
+        <v>1.9203618244411149</v>
       </c>
     </row>
     <row r="227">
@@ -1906,7 +1886,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.0026008860230736543</v>
+        <v>-0.0013905300612218918</v>
       </c>
     </row>
     <row r="228">
@@ -1914,7 +1894,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1.2272969586638971</v>
+        <v>1.2235170665174437</v>
       </c>
     </row>
     <row r="229">
@@ -1922,7 +1902,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.59693319820082513</v>
+        <v>-0.60073925627542979</v>
       </c>
     </row>
     <row r="230">
@@ -1930,7 +1910,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>2.2003635314384256</v>
+        <v>2.1978009310821141</v>
       </c>
     </row>
     <row r="231">
@@ -1938,7 +1918,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>-0.30412007425775983</v>
+        <v>-0.3080113893858103</v>
       </c>
     </row>
     <row r="232">
@@ -1946,7 +1926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1.8240638720057005</v>
+        <v>1.8227425276126374</v>
       </c>
     </row>
     <row r="233">
@@ -1954,7 +1934,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1.5021621615675405</v>
+        <v>1.5013249218630169</v>
       </c>
     </row>
     <row r="234">
@@ -1962,7 +1942,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.43139732328858893</v>
+        <v>-0.4352782956479066</v>
       </c>
     </row>
     <row r="235">
@@ -1970,7 +1950,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1.1866763116821883</v>
+        <v>1.1826328018213281</v>
       </c>
     </row>
     <row r="236">
@@ -1978,7 +1958,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>2.2076546482019417</v>
+        <v>2.204865573091201</v>
       </c>
     </row>
     <row r="237">
@@ -1986,7 +1966,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>2.1636283181604954</v>
+        <v>2.161048285202789</v>
       </c>
     </row>
     <row r="238">
@@ -1994,7 +1974,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>-0.25714074264215386</v>
+        <v>-0.26090014396705996</v>
       </c>
     </row>
     <row r="239">
@@ -2002,7 +1982,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>2.0501924267926759</v>
+        <v>2.0470043989811701</v>
       </c>
     </row>
     <row r="240">
@@ -2010,7 +1990,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.7527249073682791</v>
+        <v>1.7513597612434557</v>
       </c>
     </row>
     <row r="241">
@@ -2018,7 +1998,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1.7925905364661014</v>
+        <v>1.7886634784481934</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2006,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.78051384961324743</v>
+        <v>0.77642241823543479</v>
       </c>
     </row>
     <row r="243">
@@ -2034,7 +2014,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>2.0535740271826746</v>
+        <v>2.0512214721163891</v>
       </c>
     </row>
     <row r="244">
@@ -2042,7 +2022,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>2.4048481465457332</v>
+        <v>2.4009641003235425</v>
       </c>
     </row>
     <row r="245">
@@ -2050,7 +2030,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>2.1206691035141731</v>
+        <v>2.1181691299180576</v>
       </c>
     </row>
     <row r="246">
@@ -2058,7 +2038,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.60197749658926658</v>
+        <v>0.5977415361338948</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2046,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1.4814752654399208</v>
+        <v>1.4774652149191101</v>
       </c>
     </row>
     <row r="248">
@@ -2074,7 +2054,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>2.3032157241178348</v>
+        <v>2.2994100378933284</v>
       </c>
     </row>
     <row r="249">
@@ -2082,7 +2062,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>2.325250137088863</v>
+        <v>2.3218960207779626</v>
       </c>
     </row>
     <row r="250">
@@ -2090,7 +2070,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>2.3044243743384207</v>
+        <v>2.3001305924207687</v>
       </c>
     </row>
     <row r="251">
@@ -2098,7 +2078,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>2.1261308798113117</v>
+        <v>2.1217301292000164</v>
       </c>
     </row>
   </sheetData>
